--- a/Back-End/Results_Picking.xlsx
+++ b/Back-End/Results_Picking.xlsx
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>859.5</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>65.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -562,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -576,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -660,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -674,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="2">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -688,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -760,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="2">
-        <v>70</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="2">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -821,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -877,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="2">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -891,7 +891,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -905,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="2">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -919,7 +919,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="2">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -975,7 +975,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -989,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="2">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1003,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1045,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="2">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1059,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1087,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="2">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1101,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="2">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1143,7 +1143,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1159,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="2">
-        <v>115.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1178,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1192,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1220,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1234,7 +1234,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1248,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1262,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1276,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="2">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1290,7 +1290,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1304,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1332,7 +1332,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1346,7 +1346,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1360,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1374,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="2">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1388,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="2">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1416,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1458,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="2">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1486,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="2">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1500,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1514,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="2">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1530,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="2">
-        <v>74.5</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1549,7 +1549,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="2">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1563,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1577,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1619,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1661,7 +1661,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1675,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1703,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1731,7 +1731,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="2">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1745,7 +1745,7 @@
         <v>6</v>
       </c>
       <c r="D106" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1759,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1787,7 +1787,7 @@
         <v>6</v>
       </c>
       <c r="D109" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1899,7 +1899,7 @@
         <v>6</v>
       </c>
       <c r="D117" s="2">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2636,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="B179" s="2">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2655,7 +2655,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="2">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2669,7 +2669,7 @@
         <v>6</v>
       </c>
       <c r="D182" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2697,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="D184" s="2">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2711,7 +2711,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2725,7 +2725,7 @@
         <v>6</v>
       </c>
       <c r="D186" s="2">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2753,7 +2753,7 @@
         <v>6</v>
       </c>
       <c r="D188" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -2767,7 +2767,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -2781,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="2">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -2795,7 +2795,7 @@
         <v>6</v>
       </c>
       <c r="D191" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -2809,7 +2809,7 @@
         <v>6</v>
       </c>
       <c r="D192" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -2823,7 +2823,7 @@
         <v>6</v>
       </c>
       <c r="D193" s="2">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -2837,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="2">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -2851,7 +2851,7 @@
         <v>6</v>
       </c>
       <c r="D195" s="2">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -2865,7 +2865,7 @@
         <v>6</v>
       </c>
       <c r="D196" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="B218" s="2">
-        <v>57.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3145,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="D221" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3159,7 +3159,7 @@
         <v>6</v>
       </c>
       <c r="D222" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3187,7 +3187,7 @@
         <v>6</v>
       </c>
       <c r="D224" s="2">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3201,7 +3201,7 @@
         <v>6</v>
       </c>
       <c r="D225" s="2">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3229,7 +3229,7 @@
         <v>6</v>
       </c>
       <c r="D227" s="2">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3243,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="2">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3257,7 +3257,7 @@
         <v>6</v>
       </c>
       <c r="D229" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3271,7 +3271,7 @@
         <v>6</v>
       </c>
       <c r="D230" s="2">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3285,7 +3285,7 @@
         <v>6</v>
       </c>
       <c r="D231" s="2">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3299,7 +3299,7 @@
         <v>6</v>
       </c>
       <c r="D232" s="2">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3313,7 +3313,7 @@
         <v>6</v>
       </c>
       <c r="D233" s="2">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3341,7 +3341,7 @@
         <v>6</v>
       </c>
       <c r="D235" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3369,7 +3369,7 @@
         <v>6</v>
       </c>
       <c r="D237" s="2">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3411,7 +3411,7 @@
         <v>6</v>
       </c>
       <c r="D240" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3425,7 +3425,7 @@
         <v>6</v>
       </c>
       <c r="D241" s="2">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3453,7 +3453,7 @@
         <v>6</v>
       </c>
       <c r="D243" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3467,7 +3467,7 @@
         <v>6</v>
       </c>
       <c r="D244" s="2">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3481,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="D245" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3495,7 +3495,7 @@
         <v>6</v>
       </c>
       <c r="D246" s="2">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3509,7 +3509,7 @@
         <v>6</v>
       </c>
       <c r="D247" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Back-End/Results_Picking.xlsx
+++ b/Back-End/Results_Picking.xlsx
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>709</v>
+        <v>949.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>58</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -562,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -576,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -660,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -674,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="2">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -688,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -760,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="2">
-        <v>57.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="2">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -821,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -877,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="2">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -891,7 +891,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="2">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -905,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="2">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -919,7 +919,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="2">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -975,7 +975,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -989,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="2">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1003,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1045,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="2">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1059,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1087,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="2">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1101,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="2">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1143,7 +1143,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1159,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="2">
-        <v>45</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1178,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1192,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1220,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1234,7 +1234,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1248,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1262,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1276,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="2">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1290,7 +1290,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1304,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1332,7 +1332,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1346,7 +1346,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1360,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1374,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="2">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1388,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="2">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1416,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1458,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="2">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1486,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="2">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1500,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1514,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="2">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1530,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="2">
-        <v>69.5</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1549,7 +1549,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="2">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1563,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1577,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1619,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1661,7 +1661,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1675,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1703,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1731,7 +1731,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="2">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1745,7 +1745,7 @@
         <v>6</v>
       </c>
       <c r="D106" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1759,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1787,7 +1787,7 @@
         <v>6</v>
       </c>
       <c r="D109" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1899,7 +1899,7 @@
         <v>6</v>
       </c>
       <c r="D117" s="2">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="2">
-        <v>87.5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -1976,7 +1976,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="2">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -1990,7 +1990,7 @@
         <v>6</v>
       </c>
       <c r="D126" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2018,7 +2018,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="2">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2032,7 +2032,7 @@
         <v>6</v>
       </c>
       <c r="D129" s="2">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2046,7 +2046,7 @@
         <v>6</v>
       </c>
       <c r="D130" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2060,7 +2060,7 @@
         <v>6</v>
       </c>
       <c r="D131" s="2">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2074,7 +2074,7 @@
         <v>6</v>
       </c>
       <c r="D132" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2088,7 +2088,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="2">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2116,7 +2116,7 @@
         <v>6</v>
       </c>
       <c r="D135" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2130,7 +2130,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2144,7 +2144,7 @@
         <v>6</v>
       </c>
       <c r="D137" s="2">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2158,7 +2158,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2172,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="2">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2202,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="B143" s="2">
-        <v>77.5</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2221,7 +2221,7 @@
         <v>6</v>
       </c>
       <c r="D145" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2235,7 +2235,7 @@
         <v>6</v>
       </c>
       <c r="D146" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2263,7 +2263,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2277,7 +2277,7 @@
         <v>6</v>
       </c>
       <c r="D149" s="2">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2291,7 +2291,7 @@
         <v>6</v>
       </c>
       <c r="D150" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2305,7 +2305,7 @@
         <v>6</v>
       </c>
       <c r="D151" s="2">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2319,7 +2319,7 @@
         <v>6</v>
       </c>
       <c r="D152" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2333,7 +2333,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2347,7 +2347,7 @@
         <v>6</v>
       </c>
       <c r="D154" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2375,7 +2375,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="2">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2405,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="B160" s="2">
-        <v>85</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2424,7 +2424,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="2">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2466,7 +2466,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2480,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="D166" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2508,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="D168" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2522,7 +2522,7 @@
         <v>6</v>
       </c>
       <c r="D169" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2536,7 +2536,7 @@
         <v>6</v>
       </c>
       <c r="D170" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2550,7 +2550,7 @@
         <v>6</v>
       </c>
       <c r="D171" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2578,7 +2578,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2592,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="D174" s="2">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2606,7 +2606,7 @@
         <v>6</v>
       </c>
       <c r="D175" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2620,7 +2620,7 @@
         <v>6</v>
       </c>
       <c r="D176" s="2">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2636,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="B179" s="2">
-        <v>142</v>
+        <v>182</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2655,7 +2655,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="2">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2669,7 +2669,7 @@
         <v>6</v>
       </c>
       <c r="D182" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2697,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="D184" s="2">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2711,7 +2711,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2725,7 +2725,7 @@
         <v>6</v>
       </c>
       <c r="D186" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2753,7 +2753,7 @@
         <v>6</v>
       </c>
       <c r="D188" s="2">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -2767,7 +2767,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -2781,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="2">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -2795,7 +2795,7 @@
         <v>6</v>
       </c>
       <c r="D191" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -2809,7 +2809,7 @@
         <v>6</v>
       </c>
       <c r="D192" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -2823,7 +2823,7 @@
         <v>6</v>
       </c>
       <c r="D193" s="2">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -2837,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="2">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -2851,7 +2851,7 @@
         <v>6</v>
       </c>
       <c r="D195" s="2">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -2865,7 +2865,7 @@
         <v>6</v>
       </c>
       <c r="D196" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="2">
-        <v>44.5</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -2900,7 +2900,7 @@
         <v>6</v>
       </c>
       <c r="D201" s="2">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -2914,7 +2914,7 @@
         <v>6</v>
       </c>
       <c r="D202" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -2928,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="D203" s="2">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -2942,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="D204" s="2">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -2956,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="D205" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -2970,7 +2970,7 @@
         <v>6</v>
       </c>
       <c r="D206" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -2984,7 +2984,7 @@
         <v>6</v>
       </c>
       <c r="D207" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -2998,7 +2998,7 @@
         <v>6</v>
       </c>
       <c r="D208" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3012,7 +3012,7 @@
         <v>6</v>
       </c>
       <c r="D209" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3026,7 +3026,7 @@
         <v>6</v>
       </c>
       <c r="D210" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3040,7 +3040,7 @@
         <v>6</v>
       </c>
       <c r="D211" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3054,7 +3054,7 @@
         <v>6</v>
       </c>
       <c r="D212" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3068,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="D213" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3082,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="D214" s="2">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3096,7 +3096,7 @@
         <v>6</v>
       </c>
       <c r="D215" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="B218" s="2">
-        <v>42.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3145,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="D221" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3159,7 +3159,7 @@
         <v>6</v>
       </c>
       <c r="D222" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3187,7 +3187,7 @@
         <v>6</v>
       </c>
       <c r="D224" s="2">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3201,7 +3201,7 @@
         <v>6</v>
       </c>
       <c r="D225" s="2">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3229,7 +3229,7 @@
         <v>6</v>
       </c>
       <c r="D227" s="2">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3243,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3257,7 +3257,7 @@
         <v>6</v>
       </c>
       <c r="D229" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3271,7 +3271,7 @@
         <v>6</v>
       </c>
       <c r="D230" s="2">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3285,7 +3285,7 @@
         <v>6</v>
       </c>
       <c r="D231" s="2">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3299,7 +3299,7 @@
         <v>6</v>
       </c>
       <c r="D232" s="2">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3313,7 +3313,7 @@
         <v>6</v>
       </c>
       <c r="D233" s="2">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3341,7 +3341,7 @@
         <v>6</v>
       </c>
       <c r="D235" s="2">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3369,7 +3369,7 @@
         <v>6</v>
       </c>
       <c r="D237" s="2">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3411,7 +3411,7 @@
         <v>6</v>
       </c>
       <c r="D240" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3425,7 +3425,7 @@
         <v>6</v>
       </c>
       <c r="D241" s="2">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3453,7 +3453,7 @@
         <v>6</v>
       </c>
       <c r="D243" s="2">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3467,7 +3467,7 @@
         <v>6</v>
       </c>
       <c r="D244" s="2">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3481,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="D245" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3495,7 +3495,7 @@
         <v>6</v>
       </c>
       <c r="D246" s="2">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3509,7 +3509,7 @@
         <v>6</v>
       </c>
       <c r="D247" s="2">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Back-End/Results_Picking.xlsx
+++ b/Back-End/Results_Picking.xlsx
@@ -428,9 +428,11 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>949.5</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2">
+        <v>859.5</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
@@ -441,17 +443,22 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2">
         <v>65.5</v>
       </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
@@ -472,13 +479,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -486,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -500,13 +507,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +535,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -542,13 +549,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="2">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -584,13 +591,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +619,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="2">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -626,13 +633,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -640,13 +647,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="2">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -654,13 +661,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -668,13 +675,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -682,13 +689,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -696,13 +703,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="2">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -710,13 +717,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
         <v>61</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -724,13 +731,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="2">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="2">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -738,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="2">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -756,17 +763,22 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1"/>
+      <c r="C30" s="2">
         <v>70</v>
       </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
@@ -787,13 +799,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="2">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -801,13 +813,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="2">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="2">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -815,13 +827,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="2">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -829,13 +841,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="2">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="2">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -843,13 +855,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="2">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -857,13 +869,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -871,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -885,13 +897,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -899,13 +911,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -913,13 +925,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="2">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -927,13 +939,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="2">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="2">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -941,13 +953,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="2">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -955,13 +967,13 @@
         <v>5</v>
       </c>
       <c r="B45" s="2">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -969,13 +981,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -983,13 +995,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="2">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -997,13 +1009,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1011,13 +1023,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="2">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1025,13 +1037,13 @@
         <v>5</v>
       </c>
       <c r="B50" s="2">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1039,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="B51" s="2">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1053,13 +1065,13 @@
         <v>5</v>
       </c>
       <c r="B52" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="2">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1081,13 +1093,13 @@
         <v>5</v>
       </c>
       <c r="B54" s="2">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1095,13 +1107,13 @@
         <v>5</v>
       </c>
       <c r="B55" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1109,13 +1121,13 @@
         <v>5</v>
       </c>
       <c r="B56" s="2">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="2">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1123,13 +1135,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1137,13 +1149,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="2">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1155,17 +1167,22 @@
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1"/>
+      <c r="C61" s="2">
         <v>115.5</v>
       </c>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
@@ -1186,13 +1203,13 @@
         <v>5</v>
       </c>
       <c r="B64" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1200,13 +1217,13 @@
         <v>5</v>
       </c>
       <c r="B65" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="2">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1228,13 +1245,13 @@
         <v>5</v>
       </c>
       <c r="B67" s="2">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1242,13 +1259,13 @@
         <v>5</v>
       </c>
       <c r="B68" s="2">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1256,13 +1273,13 @@
         <v>5</v>
       </c>
       <c r="B69" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1270,13 +1287,13 @@
         <v>5</v>
       </c>
       <c r="B70" s="2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1298,13 +1315,13 @@
         <v>5</v>
       </c>
       <c r="B72" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1312,13 +1329,13 @@
         <v>5</v>
       </c>
       <c r="B73" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1326,13 +1343,13 @@
         <v>5</v>
       </c>
       <c r="B74" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1340,13 +1357,13 @@
         <v>5</v>
       </c>
       <c r="B75" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1354,13 +1371,13 @@
         <v>5</v>
       </c>
       <c r="B76" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="2">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1368,13 +1385,13 @@
         <v>5</v>
       </c>
       <c r="B77" s="2">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="2">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1382,13 +1399,13 @@
         <v>5</v>
       </c>
       <c r="B78" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1396,13 +1413,13 @@
         <v>5</v>
       </c>
       <c r="B79" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1410,13 +1427,13 @@
         <v>5</v>
       </c>
       <c r="B80" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="2">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1424,13 +1441,13 @@
         <v>5</v>
       </c>
       <c r="B81" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D81" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1438,13 +1455,13 @@
         <v>5</v>
       </c>
       <c r="B82" s="2">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="2">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1452,13 +1469,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="2">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D83" s="2">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1480,13 +1497,13 @@
         <v>5</v>
       </c>
       <c r="B85" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="2">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1494,13 +1511,13 @@
         <v>5</v>
       </c>
       <c r="B86" s="2">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1508,13 +1525,13 @@
         <v>5</v>
       </c>
       <c r="B87" s="2">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1526,17 +1543,22 @@
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1"/>
+      <c r="C90" s="2">
         <v>74.5</v>
       </c>
+      <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
@@ -1557,13 +1579,13 @@
         <v>5</v>
       </c>
       <c r="B93" s="2">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1571,13 +1593,13 @@
         <v>5</v>
       </c>
       <c r="B94" s="2">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D94" s="2">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1585,13 +1607,13 @@
         <v>5</v>
       </c>
       <c r="B95" s="2">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="2">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1599,13 +1621,13 @@
         <v>5</v>
       </c>
       <c r="B96" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1613,13 +1635,13 @@
         <v>5</v>
       </c>
       <c r="B97" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1627,13 +1649,13 @@
         <v>5</v>
       </c>
       <c r="B98" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1641,13 +1663,13 @@
         <v>5</v>
       </c>
       <c r="B99" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1655,13 +1677,13 @@
         <v>5</v>
       </c>
       <c r="B100" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D100" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1669,13 +1691,13 @@
         <v>5</v>
       </c>
       <c r="B101" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1683,13 +1705,13 @@
         <v>5</v>
       </c>
       <c r="B102" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1697,13 +1719,13 @@
         <v>5</v>
       </c>
       <c r="B103" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D103" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1711,13 +1733,13 @@
         <v>5</v>
       </c>
       <c r="B104" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D104" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1725,13 +1747,13 @@
         <v>5</v>
       </c>
       <c r="B105" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="2">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1739,13 +1761,13 @@
         <v>5</v>
       </c>
       <c r="B106" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1753,13 +1775,13 @@
         <v>5</v>
       </c>
       <c r="B107" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D107" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1767,13 +1789,13 @@
         <v>5</v>
       </c>
       <c r="B108" s="2">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1781,13 +1803,13 @@
         <v>5</v>
       </c>
       <c r="B109" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D109" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1795,13 +1817,13 @@
         <v>5</v>
       </c>
       <c r="B110" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="2">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1809,13 +1831,13 @@
         <v>5</v>
       </c>
       <c r="B111" s="2">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1823,13 +1845,13 @@
         <v>5</v>
       </c>
       <c r="B112" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D112" s="2">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1837,13 +1859,13 @@
         <v>5</v>
       </c>
       <c r="B113" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1851,13 +1873,13 @@
         <v>5</v>
       </c>
       <c r="B114" s="2">
+        <v>48</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="2">
         <v>52</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1865,13 +1887,13 @@
         <v>5</v>
       </c>
       <c r="B115" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1879,13 +1901,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D116" s="2">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1893,13 +1915,13 @@
         <v>5</v>
       </c>
       <c r="B117" s="2">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -1907,13 +1929,13 @@
         <v>5</v>
       </c>
       <c r="B118" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D118" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -1921,13 +1943,13 @@
         <v>5</v>
       </c>
       <c r="B119" s="2">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D119" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -1935,13 +1957,13 @@
         <v>5</v>
       </c>
       <c r="B120" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D120" s="2">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -1953,17 +1975,22 @@
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="2">
-        <v>115</v>
-      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="2">
+        <v>87.5</v>
+      </c>
+      <c r="D123" s="2"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
@@ -1976,7 +2003,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="2">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -1984,13 +2011,13 @@
         <v>5</v>
       </c>
       <c r="B126" s="2">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D126" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -1998,13 +2025,13 @@
         <v>5</v>
       </c>
       <c r="B127" s="2">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D127" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2012,13 +2039,13 @@
         <v>5</v>
       </c>
       <c r="B128" s="2">
+        <v>5</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="2">
         <v>7</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="2">
-        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2026,13 +2053,13 @@
         <v>5</v>
       </c>
       <c r="B129" s="2">
+        <v>7</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="2">
         <v>30</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D129" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2040,13 +2067,13 @@
         <v>5</v>
       </c>
       <c r="B130" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D130" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2054,13 +2081,13 @@
         <v>5</v>
       </c>
       <c r="B131" s="2">
+        <v>37</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="2">
         <v>33</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="2">
-        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2068,13 +2095,13 @@
         <v>5</v>
       </c>
       <c r="B132" s="2">
+        <v>33</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="2">
         <v>35</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2082,13 +2109,13 @@
         <v>5</v>
       </c>
       <c r="B133" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D133" s="2">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2096,13 +2123,13 @@
         <v>5</v>
       </c>
       <c r="B134" s="2">
+        <v>31</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="2">
         <v>36</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2110,13 +2137,13 @@
         <v>5</v>
       </c>
       <c r="B135" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2124,13 +2151,13 @@
         <v>5</v>
       </c>
       <c r="B136" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D136" s="2">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2138,13 +2165,13 @@
         <v>5</v>
       </c>
       <c r="B137" s="2">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D137" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2152,13 +2179,13 @@
         <v>5</v>
       </c>
       <c r="B138" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D138" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2166,13 +2193,13 @@
         <v>5</v>
       </c>
       <c r="B139" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D139" s="2">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2180,13 +2207,13 @@
         <v>5</v>
       </c>
       <c r="B140" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D140" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2198,17 +2225,22 @@
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B143" s="2">
-        <v>97.5</v>
-      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
@@ -2221,7 +2253,7 @@
         <v>6</v>
       </c>
       <c r="D145" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2229,13 +2261,13 @@
         <v>5</v>
       </c>
       <c r="B146" s="2">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D146" s="2">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2243,13 +2275,13 @@
         <v>5</v>
       </c>
       <c r="B147" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D147" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2257,13 +2289,13 @@
         <v>5</v>
       </c>
       <c r="B148" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D148" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2271,13 +2303,13 @@
         <v>5</v>
       </c>
       <c r="B149" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D149" s="2">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2285,13 +2317,13 @@
         <v>5</v>
       </c>
       <c r="B150" s="2">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D150" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2299,13 +2331,13 @@
         <v>5</v>
       </c>
       <c r="B151" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D151" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2313,13 +2345,13 @@
         <v>5</v>
       </c>
       <c r="B152" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D152" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2333,7 +2365,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2341,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="B154" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>6</v>
@@ -2355,13 +2387,13 @@
         <v>5</v>
       </c>
       <c r="B155" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D155" s="2">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2369,13 +2401,13 @@
         <v>5</v>
       </c>
       <c r="B156" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D156" s="2">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2383,13 +2415,13 @@
         <v>5</v>
       </c>
       <c r="B157" s="2">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D157" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2401,17 +2433,22 @@
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="2">
-        <v>97.5</v>
-      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="2">
+        <v>85</v>
+      </c>
+      <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
@@ -2424,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="2">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2446,13 +2483,13 @@
         <v>5</v>
       </c>
       <c r="B164" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D164" s="2">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2460,13 +2497,13 @@
         <v>5</v>
       </c>
       <c r="B165" s="2">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D165" s="2">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2474,13 +2511,13 @@
         <v>5</v>
       </c>
       <c r="B166" s="2">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D166" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2488,13 +2525,13 @@
         <v>5</v>
       </c>
       <c r="B167" s="2">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D167" s="2">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2502,13 +2539,13 @@
         <v>5</v>
       </c>
       <c r="B168" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D168" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2516,13 +2553,13 @@
         <v>5</v>
       </c>
       <c r="B169" s="2">
+        <v>33</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="2">
         <v>32</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D169" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2530,13 +2567,13 @@
         <v>5</v>
       </c>
       <c r="B170" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D170" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2544,13 +2581,13 @@
         <v>5</v>
       </c>
       <c r="B171" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D171" s="2">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2558,13 +2595,13 @@
         <v>5</v>
       </c>
       <c r="B172" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D172" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2572,13 +2609,13 @@
         <v>5</v>
       </c>
       <c r="B173" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D173" s="2">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2586,13 +2623,13 @@
         <v>5</v>
       </c>
       <c r="B174" s="2">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D174" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2600,13 +2637,13 @@
         <v>5</v>
       </c>
       <c r="B175" s="2">
+        <v>5</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="2">
         <v>52</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2614,13 +2651,13 @@
         <v>5</v>
       </c>
       <c r="B176" s="2">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D176" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2632,17 +2669,22 @@
       <c r="D178" s="1"/>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="1"/>
+      <c r="C179" s="2">
         <v>182</v>
       </c>
+      <c r="D179" s="2"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
@@ -2663,13 +2705,13 @@
         <v>5</v>
       </c>
       <c r="B182" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D182" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2677,13 +2719,13 @@
         <v>5</v>
       </c>
       <c r="B183" s="2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D183" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2691,13 +2733,13 @@
         <v>5</v>
       </c>
       <c r="B184" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D184" s="2">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2705,13 +2747,13 @@
         <v>5</v>
       </c>
       <c r="B185" s="2">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D185" s="2">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2719,13 +2761,13 @@
         <v>5</v>
       </c>
       <c r="B186" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D186" s="2">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2733,13 +2775,13 @@
         <v>5</v>
       </c>
       <c r="B187" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D187" s="2">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2747,13 +2789,13 @@
         <v>5</v>
       </c>
       <c r="B188" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D188" s="2">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -2761,13 +2803,13 @@
         <v>5</v>
       </c>
       <c r="B189" s="2">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D189" s="2">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -2775,13 +2817,13 @@
         <v>5</v>
       </c>
       <c r="B190" s="2">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D190" s="2">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -2789,13 +2831,13 @@
         <v>5</v>
       </c>
       <c r="B191" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D191" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -2803,13 +2845,13 @@
         <v>5</v>
       </c>
       <c r="B192" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D192" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -2817,13 +2859,13 @@
         <v>5</v>
       </c>
       <c r="B193" s="2">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D193" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -2831,13 +2873,13 @@
         <v>5</v>
       </c>
       <c r="B194" s="2">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D194" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -2845,13 +2887,13 @@
         <v>5</v>
       </c>
       <c r="B195" s="2">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D195" s="2">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -2859,13 +2901,13 @@
         <v>5</v>
       </c>
       <c r="B196" s="2">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D196" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -2877,17 +2919,22 @@
       <c r="D198" s="1"/>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B199" s="2">
-        <v>74.5</v>
-      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="D199" s="2"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2" t="s">
@@ -2900,7 +2947,7 @@
         <v>6</v>
       </c>
       <c r="D201" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -2908,13 +2955,13 @@
         <v>5</v>
       </c>
       <c r="B202" s="2">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D202" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -2928,7 +2975,7 @@
         <v>6</v>
       </c>
       <c r="D203" s="2">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -2936,13 +2983,13 @@
         <v>5</v>
       </c>
       <c r="B204" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D204" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -2950,7 +2997,7 @@
         <v>5</v>
       </c>
       <c r="B205" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>6</v>
@@ -2964,13 +3011,13 @@
         <v>5</v>
       </c>
       <c r="B206" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D206" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -2978,13 +3025,13 @@
         <v>5</v>
       </c>
       <c r="B207" s="2">
+        <v>35</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="2">
         <v>34</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D207" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -2992,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="B208" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>6</v>
@@ -3006,13 +3053,13 @@
         <v>5</v>
       </c>
       <c r="B209" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D209" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3020,7 +3067,7 @@
         <v>5</v>
       </c>
       <c r="B210" s="2">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>6</v>
@@ -3034,13 +3081,13 @@
         <v>5</v>
       </c>
       <c r="B211" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D211" s="2">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3048,13 +3095,13 @@
         <v>5</v>
       </c>
       <c r="B212" s="2">
+        <v>53</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="2">
         <v>39</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D212" s="2">
-        <v>53</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3062,7 +3109,7 @@
         <v>5</v>
       </c>
       <c r="B213" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>6</v>
@@ -3076,13 +3123,13 @@
         <v>5</v>
       </c>
       <c r="B214" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D214" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3090,13 +3137,13 @@
         <v>5</v>
       </c>
       <c r="B215" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D215" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3108,17 +3155,22 @@
       <c r="D217" s="1"/>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="1"/>
+      <c r="C218" s="2">
         <v>57.5</v>
       </c>
+      <c r="D218" s="2"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2" t="s">
@@ -3139,13 +3191,13 @@
         <v>5</v>
       </c>
       <c r="B221" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D221" s="2">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3167,13 +3219,13 @@
         <v>5</v>
       </c>
       <c r="B223" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D223" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3181,13 +3233,13 @@
         <v>5</v>
       </c>
       <c r="B224" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D224" s="2">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3195,13 +3247,13 @@
         <v>5</v>
       </c>
       <c r="B225" s="2">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D225" s="2">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3209,13 +3261,13 @@
         <v>5</v>
       </c>
       <c r="B226" s="2">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D226" s="2">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3223,13 +3275,13 @@
         <v>5</v>
       </c>
       <c r="B227" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D227" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3237,13 +3289,13 @@
         <v>5</v>
       </c>
       <c r="B228" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D228" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3251,13 +3303,13 @@
         <v>5</v>
       </c>
       <c r="B229" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D229" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3265,13 +3317,13 @@
         <v>5</v>
       </c>
       <c r="B230" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D230" s="2">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3279,13 +3331,13 @@
         <v>5</v>
       </c>
       <c r="B231" s="2">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D231" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3293,13 +3345,13 @@
         <v>5</v>
       </c>
       <c r="B232" s="2">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D232" s="2">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3307,13 +3359,13 @@
         <v>5</v>
       </c>
       <c r="B233" s="2">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D233" s="2">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3321,13 +3373,13 @@
         <v>5</v>
       </c>
       <c r="B234" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D234" s="2">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3335,13 +3387,13 @@
         <v>5</v>
       </c>
       <c r="B235" s="2">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D235" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3349,13 +3401,13 @@
         <v>5</v>
       </c>
       <c r="B236" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D236" s="2">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3363,13 +3415,13 @@
         <v>5</v>
       </c>
       <c r="B237" s="2">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D237" s="2">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3377,13 +3429,13 @@
         <v>5</v>
       </c>
       <c r="B238" s="2">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D238" s="2">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3391,13 +3443,13 @@
         <v>5</v>
       </c>
       <c r="B239" s="2">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D239" s="2">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3405,13 +3457,13 @@
         <v>5</v>
       </c>
       <c r="B240" s="2">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D240" s="2">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3419,13 +3471,13 @@
         <v>5</v>
       </c>
       <c r="B241" s="2">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D241" s="2">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3433,13 +3485,13 @@
         <v>5</v>
       </c>
       <c r="B242" s="2">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D242" s="2">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3447,13 +3499,13 @@
         <v>5</v>
       </c>
       <c r="B243" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D243" s="2">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3461,13 +3513,13 @@
         <v>5</v>
       </c>
       <c r="B244" s="2">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D244" s="2">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3475,13 +3527,13 @@
         <v>5</v>
       </c>
       <c r="B245" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D245" s="2">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3489,13 +3541,13 @@
         <v>5</v>
       </c>
       <c r="B246" s="2">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D246" s="2">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3503,28 +3555,60 @@
         <v>5</v>
       </c>
       <c r="B247" s="2">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D247" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="43">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="A62:D62"/>
     <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A91:D91"/>
     <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="A124:D124"/>
     <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="A144:D144"/>
     <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="A161:D161"/>
     <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="A180:D180"/>
     <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="A200:D200"/>
     <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="A219:D219"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Back-End/Results_Picking.xlsx
+++ b/Back-End/Results_Picking.xlsx
@@ -430,7 +430,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
-        <v>859.5</v>
+        <v>830.5</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -903,7 +903,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="2">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -911,13 +911,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="2">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="2">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -925,13 +925,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="2">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="2">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -939,13 +939,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="2">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="2">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -953,13 +953,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="2">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -967,13 +967,13 @@
         <v>5</v>
       </c>
       <c r="B45" s="2">
+        <v>30</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2">
         <v>33</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -981,13 +981,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -995,13 +995,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1009,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>6</v>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2">
-        <v>115.5</v>
+        <v>52.5</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1203,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>6</v>
@@ -1237,7 +1237,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1245,13 +1245,13 @@
         <v>5</v>
       </c>
       <c r="B67" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1259,13 +1259,13 @@
         <v>5</v>
       </c>
       <c r="B68" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1273,13 +1273,13 @@
         <v>5</v>
       </c>
       <c r="B69" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1287,13 +1287,13 @@
         <v>5</v>
       </c>
       <c r="B70" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="2">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1301,13 +1301,13 @@
         <v>5</v>
       </c>
       <c r="B71" s="2">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="2">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1315,13 +1315,13 @@
         <v>5</v>
       </c>
       <c r="B72" s="2">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>5</v>
       </c>
       <c r="B73" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>5</v>
       </c>
       <c r="B74" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="2">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>5</v>
       </c>
       <c r="B75" s="2">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>5</v>
       </c>
       <c r="B76" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>5</v>
       </c>
       <c r="B77" s="2">
+        <v>31</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="2">
         <v>30</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>5</v>
       </c>
       <c r="B78" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>5</v>
       </c>
       <c r="B79" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>5</v>
       </c>
       <c r="B80" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="2">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>5</v>
       </c>
       <c r="B81" s="2">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D81" s="2">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>5</v>
       </c>
       <c r="B82" s="2">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="2">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="2">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D83" s="2">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>5</v>
       </c>
       <c r="B84" s="2">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="2">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1497,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="2">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>6</v>
@@ -1851,7 +1851,7 @@
         <v>6</v>
       </c>
       <c r="D112" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1859,13 +1859,13 @@
         <v>5</v>
       </c>
       <c r="B113" s="2">
+        <v>48</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="2">
         <v>51</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="2">
-        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1873,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="B114" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>6</v>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="2">
-        <v>87.5</v>
+        <v>101.5</v>
       </c>
       <c r="D123" s="2"/>
     </row>
@@ -2003,7 +2003,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="2">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2011,13 +2011,13 @@
         <v>5</v>
       </c>
       <c r="B126" s="2">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D126" s="2">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2025,13 +2025,13 @@
         <v>5</v>
       </c>
       <c r="B127" s="2">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D127" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2039,13 +2039,13 @@
         <v>5</v>
       </c>
       <c r="B128" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D128" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2053,13 +2053,13 @@
         <v>5</v>
       </c>
       <c r="B129" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="2">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2067,13 +2067,13 @@
         <v>5</v>
       </c>
       <c r="B130" s="2">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D130" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2081,13 +2081,13 @@
         <v>5</v>
       </c>
       <c r="B131" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2095,7 +2095,7 @@
         <v>5</v>
       </c>
       <c r="B132" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>6</v>
@@ -2115,7 +2115,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="2">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2123,13 +2123,13 @@
         <v>5</v>
       </c>
       <c r="B134" s="2">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="2">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2137,13 +2137,13 @@
         <v>5</v>
       </c>
       <c r="B135" s="2">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="2">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2151,13 +2151,13 @@
         <v>5</v>
       </c>
       <c r="B136" s="2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D136" s="2">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2165,13 +2165,13 @@
         <v>5</v>
       </c>
       <c r="B137" s="2">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D137" s="2">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2179,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="B138" s="2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>6</v>
@@ -2199,7 +2199,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2207,7 +2207,7 @@
         <v>5</v>
       </c>
       <c r="B140" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>6</v>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="2">
-        <v>77.5</v>
+        <v>97.5</v>
       </c>
       <c r="D143" s="2"/>
     </row>
@@ -2253,7 +2253,7 @@
         <v>6</v>
       </c>
       <c r="D145" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2261,13 +2261,13 @@
         <v>5</v>
       </c>
       <c r="B146" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D146" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2275,13 +2275,13 @@
         <v>5</v>
       </c>
       <c r="B147" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D147" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2289,13 +2289,13 @@
         <v>5</v>
       </c>
       <c r="B148" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D148" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2303,13 +2303,13 @@
         <v>5</v>
       </c>
       <c r="B149" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D149" s="2">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2317,13 +2317,13 @@
         <v>5</v>
       </c>
       <c r="B150" s="2">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D150" s="2">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2331,13 +2331,13 @@
         <v>5</v>
       </c>
       <c r="B151" s="2">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D151" s="2">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2345,13 +2345,13 @@
         <v>5</v>
       </c>
       <c r="B152" s="2">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D152" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2359,13 +2359,13 @@
         <v>5</v>
       </c>
       <c r="B153" s="2">
+        <v>28</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="2">
         <v>34</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2373,13 +2373,13 @@
         <v>5</v>
       </c>
       <c r="B154" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D154" s="2">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2387,7 +2387,7 @@
         <v>5</v>
       </c>
       <c r="B155" s="2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>6</v>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="2">
-        <v>85</v>
+        <v>96.5</v>
       </c>
       <c r="D160" s="2"/>
     </row>
@@ -2461,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="2">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2469,13 +2469,13 @@
         <v>5</v>
       </c>
       <c r="B163" s="2">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D163" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2483,13 +2483,13 @@
         <v>5</v>
       </c>
       <c r="B164" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D164" s="2">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2497,13 +2497,13 @@
         <v>5</v>
       </c>
       <c r="B165" s="2">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D165" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2511,13 +2511,13 @@
         <v>5</v>
       </c>
       <c r="B166" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D166" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2525,7 +2525,7 @@
         <v>5</v>
       </c>
       <c r="B167" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>6</v>
@@ -2545,7 +2545,7 @@
         <v>6</v>
       </c>
       <c r="D168" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2553,7 +2553,7 @@
         <v>5</v>
       </c>
       <c r="B169" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>6</v>
@@ -2573,7 +2573,7 @@
         <v>6</v>
       </c>
       <c r="D170" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2581,13 +2581,13 @@
         <v>5</v>
       </c>
       <c r="B171" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D171" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2595,13 +2595,13 @@
         <v>5</v>
       </c>
       <c r="B172" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D172" s="2">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2609,13 +2609,13 @@
         <v>5</v>
       </c>
       <c r="B173" s="2">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D173" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2623,13 +2623,13 @@
         <v>5</v>
       </c>
       <c r="B174" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D174" s="2">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2637,13 +2637,13 @@
         <v>5</v>
       </c>
       <c r="B175" s="2">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D175" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2651,7 +2651,7 @@
         <v>5</v>
       </c>
       <c r="B176" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>6</v>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="2">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="D179" s="2"/>
     </row>
@@ -2697,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="2">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2705,13 +2705,13 @@
         <v>5</v>
       </c>
       <c r="B182" s="2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D182" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2719,13 +2719,13 @@
         <v>5</v>
       </c>
       <c r="B183" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D183" s="2">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2733,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="B184" s="2">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>6</v>
@@ -2753,7 +2753,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="2">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2761,13 +2761,13 @@
         <v>5</v>
       </c>
       <c r="B186" s="2">
+        <v>64</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="2">
         <v>7</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D186" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2775,13 +2775,13 @@
         <v>5</v>
       </c>
       <c r="B187" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D187" s="2">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2789,13 +2789,13 @@
         <v>5</v>
       </c>
       <c r="B188" s="2">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D188" s="2">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -2803,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="B189" s="2">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>6</v>
@@ -2823,7 +2823,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -2831,13 +2831,13 @@
         <v>5</v>
       </c>
       <c r="B191" s="2">
+        <v>36</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="2">
         <v>28</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D191" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -2845,13 +2845,13 @@
         <v>5</v>
       </c>
       <c r="B192" s="2">
+        <v>28</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="2">
         <v>30</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D192" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -2859,13 +2859,13 @@
         <v>5</v>
       </c>
       <c r="B193" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D193" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -2873,13 +2873,13 @@
         <v>5</v>
       </c>
       <c r="B194" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D194" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -2887,13 +2887,13 @@
         <v>5</v>
       </c>
       <c r="B195" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D195" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -2901,7 +2901,7 @@
         <v>5</v>
       </c>
       <c r="B196" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>6</v>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="2">
-        <v>44.5</v>
+        <v>63</v>
       </c>
       <c r="D199" s="2"/>
     </row>
@@ -2947,7 +2947,7 @@
         <v>6</v>
       </c>
       <c r="D201" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -2955,13 +2955,13 @@
         <v>5</v>
       </c>
       <c r="B202" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D202" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -2969,13 +2969,13 @@
         <v>5</v>
       </c>
       <c r="B203" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D203" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -2983,13 +2983,13 @@
         <v>5</v>
       </c>
       <c r="B204" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D204" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -2997,13 +2997,13 @@
         <v>5</v>
       </c>
       <c r="B205" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D205" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3011,13 +3011,13 @@
         <v>5</v>
       </c>
       <c r="B206" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D206" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3025,13 +3025,13 @@
         <v>5</v>
       </c>
       <c r="B207" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D207" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3039,13 +3039,13 @@
         <v>5</v>
       </c>
       <c r="B208" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D208" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3053,13 +3053,13 @@
         <v>5</v>
       </c>
       <c r="B209" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D209" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3067,7 +3067,7 @@
         <v>5</v>
       </c>
       <c r="B210" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>6</v>
@@ -3087,7 +3087,7 @@
         <v>6</v>
       </c>
       <c r="D211" s="2">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3095,13 +3095,13 @@
         <v>5</v>
       </c>
       <c r="B212" s="2">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D212" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3109,13 +3109,13 @@
         <v>5</v>
       </c>
       <c r="B213" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D213" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3123,13 +3123,13 @@
         <v>5</v>
       </c>
       <c r="B214" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D214" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3137,7 +3137,7 @@
         <v>5</v>
       </c>
       <c r="B215" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>6</v>

--- a/Back-End/Results_Picking.xlsx
+++ b/Back-End/Results_Picking.xlsx
@@ -438,7 +438,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
-        <v>949.5</v>
+        <v>719</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2">
-        <v>65.5</v>
+        <v>55.5</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -499,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -533,10 +533,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -567,10 +567,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -578,16 +578,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
@@ -604,7 +604,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -618,10 +618,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -655,7 +655,7 @@
         <v>40</v>
       </c>
       <c r="F17" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -669,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -680,16 +680,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -697,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -706,7 +706,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -720,10 +720,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -731,7 +731,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -740,7 +740,7 @@
         <v>39</v>
       </c>
       <c r="F22" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -757,7 +757,7 @@
         <v>39</v>
       </c>
       <c r="F23" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -842,7 +842,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2">
-        <v>70</v>
+        <v>57.5</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -922,7 +922,7 @@
         <v>35</v>
       </c>
       <c r="F35" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -936,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="D36" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F36" s="1">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -947,16 +947,16 @@
         <v>6</v>
       </c>
       <c r="B37" s="2">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2">
         <v>37</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="2">
-        <v>36</v>
-      </c>
       <c r="F37" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -964,16 +964,16 @@
         <v>6</v>
       </c>
       <c r="B38" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F38" s="1">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -981,16 +981,16 @@
         <v>6</v>
       </c>
       <c r="B39" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39" s="1">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -998,16 +998,16 @@
         <v>6</v>
       </c>
       <c r="B40" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40" s="1">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>7</v>
@@ -1024,7 +1024,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1038,10 +1038,10 @@
         <v>7</v>
       </c>
       <c r="D42" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" s="1">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1049,16 +1049,16 @@
         <v>6</v>
       </c>
       <c r="B43" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" s="1">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1066,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="B44" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>7</v>
@@ -1089,10 +1089,10 @@
         <v>7</v>
       </c>
       <c r="D45" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F45" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1100,7 +1100,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>7</v>
@@ -1140,10 +1140,10 @@
         <v>7</v>
       </c>
       <c r="D48" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" s="1">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1151,16 +1151,16 @@
         <v>6</v>
       </c>
       <c r="B49" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F49" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1168,16 +1168,16 @@
         <v>6</v>
       </c>
       <c r="B50" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F50" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1185,16 +1185,16 @@
         <v>6</v>
       </c>
       <c r="B51" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51" s="1">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1202,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>7</v>
@@ -1242,10 +1242,10 @@
         <v>7</v>
       </c>
       <c r="D54" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F54" s="1">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1253,16 +1253,16 @@
         <v>6</v>
       </c>
       <c r="B55" s="2">
+        <v>28</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2">
         <v>29</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="2">
-        <v>28</v>
-      </c>
       <c r="F55" s="1">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1270,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>7</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2">
-        <v>115.5</v>
+        <v>57.5</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -1356,10 +1356,10 @@
         <v>7</v>
       </c>
       <c r="D63" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F63" s="1">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1367,16 +1367,16 @@
         <v>6</v>
       </c>
       <c r="B64" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F64" s="1">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1384,16 +1384,16 @@
         <v>6</v>
       </c>
       <c r="B65" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F65" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1401,16 +1401,16 @@
         <v>6</v>
       </c>
       <c r="B66" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F66" s="1">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1418,7 +1418,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>7</v>
@@ -1427,7 +1427,7 @@
         <v>33</v>
       </c>
       <c r="F67" s="1">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1441,10 +1441,10 @@
         <v>7</v>
       </c>
       <c r="D68" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F68" s="1">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1452,16 +1452,16 @@
         <v>6</v>
       </c>
       <c r="B69" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F69" s="1">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1469,16 +1469,16 @@
         <v>6</v>
       </c>
       <c r="B70" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F70" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1486,16 +1486,16 @@
         <v>6</v>
       </c>
       <c r="B71" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F71" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1503,16 +1503,16 @@
         <v>6</v>
       </c>
       <c r="B72" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F72" s="1">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1520,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>7</v>
@@ -1529,7 +1529,7 @@
         <v>40</v>
       </c>
       <c r="F73" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1543,10 +1543,10 @@
         <v>7</v>
       </c>
       <c r="D74" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F74" s="1">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1554,16 +1554,16 @@
         <v>6</v>
       </c>
       <c r="B75" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F75" s="1">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1571,16 +1571,16 @@
         <v>6</v>
       </c>
       <c r="B76" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F76" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1588,16 +1588,16 @@
         <v>6</v>
       </c>
       <c r="B77" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F77" s="1">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1605,7 +1605,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>7</v>
@@ -1614,7 +1614,7 @@
         <v>40</v>
       </c>
       <c r="F78" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1631,7 +1631,7 @@
         <v>40</v>
       </c>
       <c r="F79" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1645,10 +1645,10 @@
         <v>7</v>
       </c>
       <c r="D80" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F80" s="1">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1656,16 +1656,16 @@
         <v>6</v>
       </c>
       <c r="B81" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F81" s="1">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1673,16 +1673,16 @@
         <v>6</v>
       </c>
       <c r="B82" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F82" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1690,16 +1690,16 @@
         <v>6</v>
       </c>
       <c r="B83" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F83" s="1">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1707,16 +1707,16 @@
         <v>6</v>
       </c>
       <c r="B84" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F84" s="1">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1724,16 +1724,16 @@
         <v>6</v>
       </c>
       <c r="B85" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F85" s="1">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1741,7 +1741,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>7</v>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="2">
-        <v>74.5</v>
+        <v>69.5</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -1878,10 +1878,10 @@
         <v>7</v>
       </c>
       <c r="D96" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F96" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -1889,16 +1889,16 @@
         <v>6</v>
       </c>
       <c r="B97" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F97" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -1906,16 +1906,16 @@
         <v>6</v>
       </c>
       <c r="B98" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F98" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -1923,7 +1923,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>7</v>
@@ -1932,7 +1932,7 @@
         <v>39</v>
       </c>
       <c r="F99" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -1949,7 +1949,7 @@
         <v>39</v>
       </c>
       <c r="F100" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>39</v>
       </c>
       <c r="F101" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -1980,10 +1980,10 @@
         <v>7</v>
       </c>
       <c r="D102" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F102" s="1">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -1991,7 +1991,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>7</v>
@@ -2000,7 +2000,7 @@
         <v>40</v>
       </c>
       <c r="F103" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2017,7 +2017,7 @@
         <v>40</v>
       </c>
       <c r="F104" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2031,10 +2031,10 @@
         <v>7</v>
       </c>
       <c r="D105" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F105" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2042,16 +2042,16 @@
         <v>6</v>
       </c>
       <c r="B106" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F106" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2059,7 +2059,7 @@
         <v>6</v>
       </c>
       <c r="B107" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>7</v>
@@ -2085,7 +2085,7 @@
         <v>40</v>
       </c>
       <c r="F108" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2099,10 +2099,10 @@
         <v>7</v>
       </c>
       <c r="D109" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F109" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2110,16 +2110,16 @@
         <v>6</v>
       </c>
       <c r="B110" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F110" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2127,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="B111" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>7</v>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="2">
-        <v>115</v>
+        <v>87.5</v>
       </c>
       <c r="D123" s="2"/>
     </row>
@@ -2332,10 +2332,10 @@
         <v>7</v>
       </c>
       <c r="D125" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F125" s="1">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2343,16 +2343,16 @@
         <v>6</v>
       </c>
       <c r="B126" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D126" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F126" s="1">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2360,16 +2360,16 @@
         <v>6</v>
       </c>
       <c r="B127" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F127" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2377,16 +2377,16 @@
         <v>6</v>
       </c>
       <c r="B128" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D128" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F128" s="1">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2394,16 +2394,16 @@
         <v>6</v>
       </c>
       <c r="B129" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D129" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F129" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2411,16 +2411,16 @@
         <v>6</v>
       </c>
       <c r="B130" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D130" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F130" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2428,7 +2428,7 @@
         <v>6</v>
       </c>
       <c r="B131" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>7</v>
@@ -2437,7 +2437,7 @@
         <v>40</v>
       </c>
       <c r="F131" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2451,10 +2451,10 @@
         <v>7</v>
       </c>
       <c r="D132" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F132" s="1">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2462,7 +2462,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>7</v>
@@ -2471,7 +2471,7 @@
         <v>40</v>
       </c>
       <c r="F133" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2485,10 +2485,10 @@
         <v>7</v>
       </c>
       <c r="D134" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F134" s="1">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -2496,16 +2496,16 @@
         <v>6</v>
       </c>
       <c r="B135" s="2">
+        <v>40</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="2">
         <v>41</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D135" s="2">
-        <v>40</v>
-      </c>
       <c r="F135" s="1">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -2513,16 +2513,16 @@
         <v>6</v>
       </c>
       <c r="B136" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="2">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F136" s="1">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -2530,16 +2530,16 @@
         <v>6</v>
       </c>
       <c r="B137" s="2">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F137" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2547,16 +2547,16 @@
         <v>6</v>
       </c>
       <c r="B138" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F138" s="1">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -2564,16 +2564,16 @@
         <v>6</v>
       </c>
       <c r="B139" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F139" s="1">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2581,7 +2581,7 @@
         <v>6</v>
       </c>
       <c r="B140" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>7</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="2">
-        <v>97.5</v>
+        <v>77.5</v>
       </c>
       <c r="D143" s="2"/>
     </row>
@@ -2633,10 +2633,10 @@
         <v>7</v>
       </c>
       <c r="D145" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F145" s="1">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -2644,16 +2644,16 @@
         <v>6</v>
       </c>
       <c r="B146" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F146" s="1">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -2661,16 +2661,16 @@
         <v>6</v>
       </c>
       <c r="B147" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D147" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F147" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -2678,16 +2678,16 @@
         <v>6</v>
       </c>
       <c r="B148" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F148" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -2695,16 +2695,16 @@
         <v>6</v>
       </c>
       <c r="B149" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D149" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F149" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -2712,16 +2712,16 @@
         <v>6</v>
       </c>
       <c r="B150" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D150" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F150" s="1">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -2729,16 +2729,16 @@
         <v>6</v>
       </c>
       <c r="B151" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D151" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F151" s="1">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -2746,16 +2746,16 @@
         <v>6</v>
       </c>
       <c r="B152" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D152" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F152" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -2763,7 +2763,7 @@
         <v>6</v>
       </c>
       <c r="B153" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>7</v>
@@ -2772,7 +2772,7 @@
         <v>40</v>
       </c>
       <c r="F153" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -2789,7 +2789,7 @@
         <v>40</v>
       </c>
       <c r="F154" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="2">
-        <v>97.5</v>
+        <v>85</v>
       </c>
       <c r="D160" s="2"/>
     </row>
@@ -2883,10 +2883,10 @@
         <v>7</v>
       </c>
       <c r="D162" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F162" s="1">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -2894,16 +2894,16 @@
         <v>6</v>
       </c>
       <c r="B163" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D163" s="2">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F163" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -2911,16 +2911,16 @@
         <v>6</v>
       </c>
       <c r="B164" s="2">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D164" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F164" s="1">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -2928,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="B165" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>7</v>
@@ -2937,7 +2937,7 @@
         <v>40</v>
       </c>
       <c r="F165" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>40</v>
       </c>
       <c r="F166" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -2971,7 +2971,7 @@
         <v>40</v>
       </c>
       <c r="F167" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -2988,7 +2988,7 @@
         <v>40</v>
       </c>
       <c r="F168" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3005,7 +3005,7 @@
         <v>40</v>
       </c>
       <c r="F169" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3019,10 +3019,10 @@
         <v>7</v>
       </c>
       <c r="D170" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F170" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3030,16 +3030,16 @@
         <v>6</v>
       </c>
       <c r="B171" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D171" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F171" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3047,16 +3047,16 @@
         <v>6</v>
       </c>
       <c r="B172" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D172" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F172" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3064,16 +3064,16 @@
         <v>6</v>
       </c>
       <c r="B173" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D173" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F173" s="1">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3081,16 +3081,16 @@
         <v>6</v>
       </c>
       <c r="B174" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F174" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3098,16 +3098,16 @@
         <v>6</v>
       </c>
       <c r="B175" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D175" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F175" s="1">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3115,7 +3115,7 @@
         <v>6</v>
       </c>
       <c r="B176" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>7</v>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="2">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="D179" s="2"/>
     </row>
@@ -3167,10 +3167,10 @@
         <v>7</v>
       </c>
       <c r="D181" s="2">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F181" s="1">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3178,16 +3178,16 @@
         <v>6</v>
       </c>
       <c r="B182" s="2">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D182" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F182" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -3195,16 +3195,16 @@
         <v>6</v>
       </c>
       <c r="B183" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F183" s="1">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3212,16 +3212,16 @@
         <v>6</v>
       </c>
       <c r="B184" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F184" s="1">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -3229,16 +3229,16 @@
         <v>6</v>
       </c>
       <c r="B185" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D185" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F185" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3246,16 +3246,16 @@
         <v>6</v>
       </c>
       <c r="B186" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D186" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F186" s="1">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -3263,16 +3263,16 @@
         <v>6</v>
       </c>
       <c r="B187" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D187" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F187" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -3280,16 +3280,16 @@
         <v>6</v>
       </c>
       <c r="B188" s="2">
+        <v>40</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="2">
+        <v>40</v>
+      </c>
+      <c r="F188" s="1">
         <v>33</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D188" s="2">
-        <v>35</v>
-      </c>
-      <c r="F188" s="1">
-        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -3297,16 +3297,16 @@
         <v>6</v>
       </c>
       <c r="B189" s="2">
+        <v>40</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="2">
+        <v>40</v>
+      </c>
+      <c r="F189" s="1">
         <v>35</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D189" s="2">
-        <v>41</v>
-      </c>
-      <c r="F189" s="1">
-        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -3314,16 +3314,16 @@
         <v>6</v>
       </c>
       <c r="B190" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D190" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F190" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -3331,7 +3331,7 @@
         <v>6</v>
       </c>
       <c r="B191" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>7</v>
@@ -3354,10 +3354,10 @@
         <v>7</v>
       </c>
       <c r="D192" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F192" s="1">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -3365,16 +3365,16 @@
         <v>6</v>
       </c>
       <c r="B193" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D193" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F193" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3382,16 +3382,16 @@
         <v>6</v>
       </c>
       <c r="B194" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D194" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F194" s="1">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3399,16 +3399,16 @@
         <v>6</v>
       </c>
       <c r="B195" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D195" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F195" s="1">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -3416,7 +3416,7 @@
         <v>6</v>
       </c>
       <c r="B196" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>7</v>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="2">
-        <v>74.5</v>
+        <v>44.5</v>
       </c>
       <c r="D199" s="2"/>
     </row>
@@ -3468,10 +3468,10 @@
         <v>7</v>
       </c>
       <c r="D201" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F201" s="1">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3479,16 +3479,16 @@
         <v>6</v>
       </c>
       <c r="B202" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D202" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F202" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -3496,16 +3496,16 @@
         <v>6</v>
       </c>
       <c r="B203" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D203" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F203" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3513,7 +3513,7 @@
         <v>6</v>
       </c>
       <c r="B204" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>7</v>
@@ -3522,7 +3522,7 @@
         <v>40</v>
       </c>
       <c r="F204" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -3553,10 +3553,10 @@
         <v>7</v>
       </c>
       <c r="D206" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F206" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -3564,16 +3564,16 @@
         <v>6</v>
       </c>
       <c r="B207" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D207" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F207" s="1">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -3581,16 +3581,16 @@
         <v>6</v>
       </c>
       <c r="B208" s="2">
+        <v>40</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" s="2">
+        <v>40</v>
+      </c>
+      <c r="F208" s="1">
         <v>33</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D208" s="2">
-        <v>39</v>
-      </c>
-      <c r="F208" s="1">
-        <v>28</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -3598,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="B209" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>7</v>
@@ -3607,7 +3607,7 @@
         <v>40</v>
       </c>
       <c r="F209" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -3624,7 +3624,7 @@
         <v>40</v>
       </c>
       <c r="F210" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -3638,10 +3638,10 @@
         <v>7</v>
       </c>
       <c r="D211" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F211" s="1">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -3649,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="B212" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>7</v>
@@ -3658,7 +3658,7 @@
         <v>29</v>
       </c>
       <c r="F212" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -3675,7 +3675,7 @@
         <v>29</v>
       </c>
       <c r="F213" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -3689,10 +3689,10 @@
         <v>7</v>
       </c>
       <c r="D214" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F214" s="1">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -3700,7 +3700,7 @@
         <v>6</v>
       </c>
       <c r="B215" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>7</v>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="2">
-        <v>57.5</v>
+        <v>42.5</v>
       </c>
       <c r="D218" s="2"/>
     </row>
@@ -3837,10 +3837,10 @@
         <v>7</v>
       </c>
       <c r="D225" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F225" s="1">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -3848,16 +3848,16 @@
         <v>6</v>
       </c>
       <c r="B226" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F226" s="1">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -3865,16 +3865,16 @@
         <v>6</v>
       </c>
       <c r="B227" s="2">
+        <v>32</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="2">
         <v>33</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D227" s="2">
-        <v>32</v>
-      </c>
       <c r="F227" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -3882,16 +3882,16 @@
         <v>6</v>
       </c>
       <c r="B228" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F228" s="1">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -3899,7 +3899,7 @@
         <v>6</v>
       </c>
       <c r="B229" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>7</v>
@@ -3956,10 +3956,10 @@
         <v>7</v>
       </c>
       <c r="D232" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F232" s="1">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -3967,16 +3967,16 @@
         <v>6</v>
       </c>
       <c r="B233" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D233" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F233" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -3984,16 +3984,16 @@
         <v>6</v>
       </c>
       <c r="B234" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F234" s="1">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -4001,7 +4001,7 @@
         <v>6</v>
       </c>
       <c r="B235" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>7</v>
@@ -4010,7 +4010,7 @@
         <v>40</v>
       </c>
       <c r="F235" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>7</v>
       </c>
       <c r="D237" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F237" s="1">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -4052,16 +4052,16 @@
         <v>6</v>
       </c>
       <c r="B238" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D238" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F238" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -4069,16 +4069,16 @@
         <v>6</v>
       </c>
       <c r="B239" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D239" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F239" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>6</v>
       </c>
       <c r="B240" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>7</v>
@@ -4095,7 +4095,7 @@
         <v>40</v>
       </c>
       <c r="F240" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -4112,7 +4112,7 @@
         <v>40</v>
       </c>
       <c r="F241" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -4129,7 +4129,7 @@
         <v>40</v>
       </c>
       <c r="F242" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="243" spans="1:6">

--- a/Back-End/Results_Picking.xlsx
+++ b/Back-End/Results_Picking.xlsx
@@ -438,7 +438,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
-        <v>719</v>
+        <v>669</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2">
-        <v>55.5</v>
+        <v>57.5</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -493,16 +493,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -519,7 +519,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -533,10 +533,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -544,16 +544,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -561,16 +561,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -578,16 +578,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -595,16 +595,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -612,16 +612,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -629,16 +629,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
@@ -655,7 +655,7 @@
         <v>40</v>
       </c>
       <c r="F17" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -672,7 +672,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -689,7 +689,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -706,7 +706,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -720,10 +720,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -731,16 +731,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -748,16 +748,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -765,16 +765,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -782,16 +782,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F25" s="1">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -799,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2">
-        <v>57.5</v>
+        <v>40.5</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -868,10 +868,10 @@
         <v>7</v>
       </c>
       <c r="D32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B33" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F33" s="1">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -896,16 +896,16 @@
         <v>6</v>
       </c>
       <c r="B34" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F34" s="1">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -913,16 +913,16 @@
         <v>6</v>
       </c>
       <c r="B35" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F35" s="1">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -930,16 +930,16 @@
         <v>6</v>
       </c>
       <c r="B36" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="2">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -947,16 +947,16 @@
         <v>6</v>
       </c>
       <c r="B37" s="2">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F37" s="1">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -964,16 +964,16 @@
         <v>6</v>
       </c>
       <c r="B38" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" s="1">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -981,7 +981,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>7</v>
@@ -1004,10 +1004,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" s="1">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>7</v>
@@ -1024,7 +1024,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1041,7 +1041,7 @@
         <v>40</v>
       </c>
       <c r="F42" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1058,7 +1058,7 @@
         <v>40</v>
       </c>
       <c r="F43" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1075,7 +1075,7 @@
         <v>40</v>
       </c>
       <c r="F44" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1092,7 +1092,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1160,7 +1160,7 @@
         <v>37</v>
       </c>
       <c r="F49" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1174,10 +1174,10 @@
         <v>7</v>
       </c>
       <c r="D50" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F50" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1185,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>7</v>
@@ -1194,7 +1194,7 @@
         <v>36</v>
       </c>
       <c r="F51" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1208,10 +1208,10 @@
         <v>7</v>
       </c>
       <c r="D52" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F52" s="1">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1219,16 +1219,16 @@
         <v>6</v>
       </c>
       <c r="B53" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53" s="1">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1236,16 +1236,16 @@
         <v>6</v>
       </c>
       <c r="B54" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F54" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1253,16 +1253,16 @@
         <v>6</v>
       </c>
       <c r="B55" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F55" s="1">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1270,16 +1270,16 @@
         <v>6</v>
       </c>
       <c r="B56" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F56" s="1">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1287,16 +1287,16 @@
         <v>6</v>
       </c>
       <c r="B57" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F57" s="1">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1304,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>7</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2">
-        <v>57.5</v>
+        <v>32.5</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -1373,10 +1373,10 @@
         <v>7</v>
       </c>
       <c r="D64" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F64" s="1">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1384,16 +1384,16 @@
         <v>6</v>
       </c>
       <c r="B65" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F65" s="1">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1401,16 +1401,16 @@
         <v>6</v>
       </c>
       <c r="B66" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F66" s="1">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1418,7 +1418,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>7</v>
@@ -1427,7 +1427,7 @@
         <v>33</v>
       </c>
       <c r="F67" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1441,10 +1441,10 @@
         <v>7</v>
       </c>
       <c r="D68" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F68" s="1">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1452,16 +1452,16 @@
         <v>6</v>
       </c>
       <c r="B69" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F69" s="1">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1469,16 +1469,16 @@
         <v>6</v>
       </c>
       <c r="B70" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F70" s="1">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="B71" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>7</v>
@@ -1495,7 +1495,7 @@
         <v>39</v>
       </c>
       <c r="F71" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1512,7 +1512,7 @@
         <v>39</v>
       </c>
       <c r="F72" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1563,7 +1563,7 @@
         <v>40</v>
       </c>
       <c r="F75" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1580,7 +1580,7 @@
         <v>40</v>
       </c>
       <c r="F76" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1594,10 +1594,10 @@
         <v>7</v>
       </c>
       <c r="D77" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F77" s="1">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1605,7 +1605,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>7</v>
@@ -1614,7 +1614,7 @@
         <v>40</v>
       </c>
       <c r="F78" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1628,10 +1628,10 @@
         <v>7</v>
       </c>
       <c r="D79" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F79" s="1">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1639,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>7</v>
@@ -1662,10 +1662,10 @@
         <v>7</v>
       </c>
       <c r="D81" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F81" s="1">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1673,16 +1673,16 @@
         <v>6</v>
       </c>
       <c r="B82" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F82" s="1">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1690,16 +1690,16 @@
         <v>6</v>
       </c>
       <c r="B83" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F83" s="1">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1707,16 +1707,16 @@
         <v>6</v>
       </c>
       <c r="B84" s="2">
+        <v>28</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="2">
         <v>29</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="2">
-        <v>28</v>
-      </c>
       <c r="F84" s="1">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1724,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>7</v>
@@ -1733,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="F85" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1747,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="D86" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F86" s="1">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="B87" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>7</v>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="2">
-        <v>69.5</v>
+        <v>74.5</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -1861,10 +1861,10 @@
         <v>7</v>
       </c>
       <c r="D95" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F95" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -1872,16 +1872,16 @@
         <v>6</v>
       </c>
       <c r="B96" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F96" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -1889,16 +1889,16 @@
         <v>6</v>
       </c>
       <c r="B97" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F97" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="B98" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>7</v>
@@ -1949,7 +1949,7 @@
         <v>39</v>
       </c>
       <c r="F100" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -1980,10 +1980,10 @@
         <v>7</v>
       </c>
       <c r="D102" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F102" s="1">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -1991,7 +1991,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>7</v>
@@ -2000,7 +2000,7 @@
         <v>40</v>
       </c>
       <c r="F103" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2017,7 +2017,7 @@
         <v>40</v>
       </c>
       <c r="F104" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>40</v>
       </c>
       <c r="F105" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2051,7 +2051,7 @@
         <v>40</v>
       </c>
       <c r="F106" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2082,10 +2082,10 @@
         <v>7</v>
       </c>
       <c r="D108" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F108" s="1">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2093,16 +2093,16 @@
         <v>6</v>
       </c>
       <c r="B109" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D109" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F109" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2110,16 +2110,16 @@
         <v>6</v>
       </c>
       <c r="B110" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F110" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2127,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="B111" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>7</v>
@@ -2153,7 +2153,7 @@
         <v>33</v>
       </c>
       <c r="F112" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2187,7 +2187,7 @@
         <v>33</v>
       </c>
       <c r="F114" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2218,10 +2218,10 @@
         <v>7</v>
       </c>
       <c r="D116" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F116" s="1">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2229,7 +2229,7 @@
         <v>6</v>
       </c>
       <c r="B117" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>7</v>
@@ -2238,7 +2238,7 @@
         <v>29</v>
       </c>
       <c r="F117" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2252,10 +2252,10 @@
         <v>7</v>
       </c>
       <c r="D118" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F118" s="1">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2263,7 +2263,7 @@
         <v>6</v>
       </c>
       <c r="B119" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>7</v>
@@ -2369,7 +2369,7 @@
         <v>36</v>
       </c>
       <c r="F127" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>36</v>
       </c>
       <c r="F128" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2420,7 +2420,7 @@
         <v>40</v>
       </c>
       <c r="F130" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2437,7 +2437,7 @@
         <v>40</v>
       </c>
       <c r="F131" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>40</v>
       </c>
       <c r="F132" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2471,7 +2471,7 @@
         <v>40</v>
       </c>
       <c r="F133" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2488,7 +2488,7 @@
         <v>40</v>
       </c>
       <c r="F134" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -2505,7 +2505,7 @@
         <v>41</v>
       </c>
       <c r="F135" s="1">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -2522,7 +2522,7 @@
         <v>41</v>
       </c>
       <c r="F136" s="1">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3167,10 +3167,10 @@
         <v>7</v>
       </c>
       <c r="D181" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F181" s="1">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3178,16 +3178,16 @@
         <v>6</v>
       </c>
       <c r="B182" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D182" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F182" s="1">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -3195,16 +3195,16 @@
         <v>6</v>
       </c>
       <c r="B183" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F183" s="1">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3212,7 +3212,7 @@
         <v>6</v>
       </c>
       <c r="B184" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>7</v>
@@ -3221,7 +3221,7 @@
         <v>39</v>
       </c>
       <c r="F184" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -3238,7 +3238,7 @@
         <v>39</v>
       </c>
       <c r="F185" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3252,10 +3252,10 @@
         <v>7</v>
       </c>
       <c r="D186" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F186" s="1">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -3263,7 +3263,7 @@
         <v>6</v>
       </c>
       <c r="B187" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>7</v>
@@ -3272,7 +3272,7 @@
         <v>40</v>
       </c>
       <c r="F187" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -3289,7 +3289,7 @@
         <v>40</v>
       </c>
       <c r="F188" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -3320,10 +3320,10 @@
         <v>7</v>
       </c>
       <c r="D190" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F190" s="1">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -3331,16 +3331,16 @@
         <v>6</v>
       </c>
       <c r="B191" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D191" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F191" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -3348,7 +3348,7 @@
         <v>6</v>
       </c>
       <c r="B192" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>7</v>
@@ -3388,10 +3388,10 @@
         <v>7</v>
       </c>
       <c r="D194" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F194" s="1">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3399,16 +3399,16 @@
         <v>6</v>
       </c>
       <c r="B195" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D195" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F195" s="1">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -3416,7 +3416,7 @@
         <v>6</v>
       </c>
       <c r="B196" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>7</v>
@@ -3468,10 +3468,10 @@
         <v>7</v>
       </c>
       <c r="D201" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F201" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3479,16 +3479,16 @@
         <v>6</v>
       </c>
       <c r="B202" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D202" s="2">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F202" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -3496,16 +3496,16 @@
         <v>6</v>
       </c>
       <c r="B203" s="2">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D203" s="2">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F203" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3513,16 +3513,16 @@
         <v>6</v>
       </c>
       <c r="B204" s="2">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D204" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F204" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -3530,7 +3530,7 @@
         <v>6</v>
       </c>
       <c r="B205" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>7</v>
@@ -3539,7 +3539,7 @@
         <v>40</v>
       </c>
       <c r="F205" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -3556,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="F206" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -3573,7 +3573,7 @@
         <v>40</v>
       </c>
       <c r="F207" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -3590,7 +3590,7 @@
         <v>40</v>
       </c>
       <c r="F208" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -3607,7 +3607,7 @@
         <v>40</v>
       </c>
       <c r="F209" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -3624,7 +3624,7 @@
         <v>40</v>
       </c>
       <c r="F210" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -3638,10 +3638,10 @@
         <v>7</v>
       </c>
       <c r="D211" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F211" s="1">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -3649,16 +3649,16 @@
         <v>6</v>
       </c>
       <c r="B212" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D212" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F212" s="1">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -3666,16 +3666,16 @@
         <v>6</v>
       </c>
       <c r="B213" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D213" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F213" s="1">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -3683,16 +3683,16 @@
         <v>6</v>
       </c>
       <c r="B214" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D214" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F214" s="1">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -3700,7 +3700,7 @@
         <v>6</v>
       </c>
       <c r="B215" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>7</v>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="2">
-        <v>42.5</v>
+        <v>27.5</v>
       </c>
       <c r="D218" s="2"/>
     </row>
@@ -3823,7 +3823,7 @@
         <v>34</v>
       </c>
       <c r="F224" s="1">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>33</v>
       </c>
       <c r="F227" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -3891,7 +3891,7 @@
         <v>33</v>
       </c>
       <c r="F228" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -3908,7 +3908,7 @@
         <v>33</v>
       </c>
       <c r="F229" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -3922,10 +3922,10 @@
         <v>7</v>
       </c>
       <c r="D230" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F230" s="1">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -3933,16 +3933,16 @@
         <v>6</v>
       </c>
       <c r="B231" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D231" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F231" s="1">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -3950,16 +3950,16 @@
         <v>6</v>
       </c>
       <c r="B232" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F232" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -3967,16 +3967,16 @@
         <v>6</v>
       </c>
       <c r="B233" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D233" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F233" s="1">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -3984,16 +3984,16 @@
         <v>6</v>
       </c>
       <c r="B234" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F234" s="1">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -4001,16 +4001,16 @@
         <v>6</v>
       </c>
       <c r="B235" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D235" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F235" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -4018,16 +4018,16 @@
         <v>6</v>
       </c>
       <c r="B236" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D236" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F236" s="1">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -4035,16 +4035,16 @@
         <v>6</v>
       </c>
       <c r="B237" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D237" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F237" s="1">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -4052,7 +4052,7 @@
         <v>6</v>
       </c>
       <c r="B238" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>7</v>
@@ -4061,7 +4061,7 @@
         <v>40</v>
       </c>
       <c r="F238" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -4078,7 +4078,7 @@
         <v>40</v>
       </c>
       <c r="F239" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -4095,7 +4095,7 @@
         <v>40</v>
       </c>
       <c r="F240" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -4129,7 +4129,7 @@
         <v>40</v>
       </c>
       <c r="F242" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>7</v>
       </c>
       <c r="D243" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F243" s="1">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -4154,16 +4154,16 @@
         <v>6</v>
       </c>
       <c r="B244" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D244" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F244" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -4171,16 +4171,16 @@
         <v>6</v>
       </c>
       <c r="B245" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D245" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F245" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -4188,7 +4188,7 @@
         <v>6</v>
       </c>
       <c r="B246" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>7</v>
@@ -4197,7 +4197,7 @@
         <v>34</v>
       </c>
       <c r="F246" s="1">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="247" spans="1:6">
